--- a/data/molgenis_DataCatalogueFlat_for_LLM_descriptives.xlsx
+++ b/data/molgenis_DataCatalogueFlat_for_LLM_descriptives.xlsx
@@ -2919,7 +2919,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2930,6 +2930,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2981,27 +2987,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3344,26 +3353,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="52.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="52.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="51.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,14 +3425,14 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3443,7 +3452,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3454,7 +3463,7 @@
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3478,7 +3487,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3509,7 +3518,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3520,7 +3529,7 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3534,7 +3543,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <f>mg_tableclass.includes('Organisations')? {name: 'Organisation'} : undefined</f>
       </c>
       <c r="N5" s="1"/>
@@ -3546,7 +3555,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3575,42 +3584,42 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3621,7 +3630,7 @@
       <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3641,7 +3650,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3670,7 +3679,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3681,7 +3690,7 @@
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3703,19 +3712,19 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="1"/>
@@ -3725,18 +3734,18 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3747,7 +3756,7 @@
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3769,7 +3778,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -3780,7 +3789,7 @@
       <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>30</v>
@@ -3804,7 +3813,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3833,7 +3842,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3862,7 +3871,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3873,7 +3882,7 @@
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3920,7 +3929,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -3931,7 +3940,7 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3957,19 +3966,19 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="1"/>
@@ -3979,18 +3988,18 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4019,19 +4028,19 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="1"/>
@@ -4041,18 +4050,18 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -4063,7 +4072,7 @@
       <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -4087,19 +4096,19 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="1"/>
@@ -4109,13 +4118,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q23" s="1"/>
@@ -4131,7 +4140,7 @@
       <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4162,7 +4171,7 @@
       <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4183,22 +4192,22 @@
       <c r="Q25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I26" s="1"/>
@@ -4207,26 +4216,26 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4236,31 +4245,31 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="1"/>
@@ -4269,31 +4278,31 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>111</v>
       </c>
       <c r="I29" s="1"/>
@@ -4302,31 +4311,31 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="1"/>
@@ -4335,10 +4344,10 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Q30" s="1"/>
@@ -4354,7 +4363,7 @@
       <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>30</v>
@@ -4387,7 +4396,7 @@
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4416,7 +4425,7 @@
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4445,7 +4454,7 @@
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
@@ -4480,7 +4489,7 @@
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
@@ -4515,7 +4524,7 @@
       <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
@@ -4550,7 +4559,7 @@
       <c r="D37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4581,7 +4590,7 @@
       <c r="D38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4612,7 +4621,7 @@
       <c r="D39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
@@ -4626,7 +4635,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="4">
+      <c r="M39" s="5">
         <f> [{name: 'Health'}]</f>
       </c>
       <c r="N39" s="1" t="s">
@@ -4651,7 +4660,7 @@
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1" t="s">
         <v>52</v>
       </c>
@@ -4665,7 +4674,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="4">
+      <c r="M40" s="5">
         <f> {name: 'Non public'}</f>
       </c>
       <c r="N40" s="1" t="s">
@@ -4690,7 +4699,7 @@
       <c r="D41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
         <v>52</v>
       </c>
@@ -4704,7 +4713,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="4">
+      <c r="M41" s="5">
         <f> [{name: 'Data Governance Act'}]</f>
       </c>
       <c r="N41" s="1" t="s">
@@ -4729,7 +4738,7 @@
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -4756,7 +4765,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -4787,7 +4796,7 @@
       <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4822,7 +4831,7 @@
       <c r="D45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>30</v>
@@ -4857,7 +4866,7 @@
       <c r="D46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -4876,18 +4885,18 @@
       <c r="Q46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="6">
+      <c r="E47" s="7">
         <v>1</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="1"/>
@@ -4897,30 +4906,30 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>1</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="1"/>
@@ -4930,13 +4939,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="P48" s="5" t="s">
+      <c r="P48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q48" s="1"/>
@@ -4950,7 +4959,7 @@
         <v>170</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="1" t="s">
         <v>23</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>174</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5010,7 +5019,7 @@
         <v>177</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5039,7 +5048,7 @@
       <c r="D52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
         <v>30</v>
@@ -5074,7 +5083,7 @@
       <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
@@ -5099,18 +5108,18 @@
       <c r="Q53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G54" s="1"/>
@@ -5120,13 +5129,13 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P54" s="6" t="s">
         <v>176</v>
       </c>
       <c r="Q54" s="1"/>
@@ -5140,7 +5149,7 @@
         <v>188</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -5171,7 +5180,7 @@
       <c r="D56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -5202,7 +5211,7 @@
       <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -5231,7 +5240,7 @@
         <v>198</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -5256,7 +5265,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -5285,7 +5294,7 @@
       <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5320,7 +5329,7 @@
       <c r="D61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5357,7 +5366,7 @@
       <c r="D62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5392,7 +5401,7 @@
       <c r="D63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5429,7 +5438,7 @@
       <c r="D64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -5458,7 +5467,7 @@
       <c r="D65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -5487,7 +5496,7 @@
       <c r="D66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -5512,7 +5521,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5541,7 +5550,7 @@
       <c r="D68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="4">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -5574,7 +5583,7 @@
         <v>33</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="3">
+      <c r="E69" s="4">
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -5605,7 +5614,7 @@
         <v>222</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -5634,7 +5643,7 @@
       <c r="D71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
         <v>30</v>
@@ -5667,7 +5676,7 @@
       <c r="D72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
         <v>30</v>
@@ -5700,7 +5709,7 @@
       <c r="D73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
         <v>30</v>
@@ -5733,7 +5742,7 @@
       <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5762,7 +5771,7 @@
       <c r="D75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5791,7 +5800,7 @@
       <c r="D76" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
@@ -5824,7 +5833,7 @@
       <c r="D77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
@@ -5855,7 +5864,7 @@
         <v>240</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5882,7 +5891,7 @@
         <v>242</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5907,7 +5916,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5936,7 +5945,7 @@
       <c r="D81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -5969,7 +5978,7 @@
         <v>33</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -6002,7 +6011,7 @@
       <c r="D83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
         <v>30</v>
@@ -6035,7 +6044,7 @@
       <c r="D84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6064,7 +6073,7 @@
       <c r="D85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="3"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6093,7 +6102,7 @@
       <c r="D86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="3"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6118,7 +6127,7 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="3"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -6149,7 +6158,7 @@
       <c r="D88" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -6184,7 +6193,7 @@
       <c r="D89" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="3"/>
       <c r="F89" s="1" t="s">
         <v>23</v>
       </c>
@@ -6217,7 +6226,7 @@
       <c r="D90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="3"/>
       <c r="F90" s="1" t="s">
         <v>23</v>
       </c>
@@ -6250,7 +6259,7 @@
       <c r="D91" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="3"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -6281,7 +6290,7 @@
       <c r="D92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="3"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -6312,7 +6321,7 @@
       <c r="D93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
@@ -6347,7 +6356,7 @@
       <c r="D94" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -6378,7 +6387,7 @@
       <c r="D95" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="1" t="s">
         <v>23</v>
       </c>
@@ -6411,7 +6420,7 @@
       <c r="D96" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="3"/>
       <c r="F96" s="1" t="s">
         <v>23</v>
       </c>
@@ -6444,7 +6453,7 @@
       <c r="D97" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6475,7 +6484,7 @@
       <c r="D98" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="3"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -6506,7 +6515,7 @@
       <c r="D99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
@@ -6539,7 +6548,7 @@
       <c r="D100" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -6570,7 +6579,7 @@
       <c r="D101" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -6601,7 +6610,7 @@
       <c r="D102" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="3"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -6632,7 +6641,7 @@
       <c r="D103" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="1" t="s">
         <v>23</v>
       </c>
@@ -6667,7 +6676,7 @@
       <c r="D104" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="3"/>
       <c r="F104" s="1" t="s">
         <v>23</v>
       </c>
@@ -6700,7 +6709,7 @@
       <c r="D105" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -6731,7 +6740,7 @@
       <c r="D106" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -6762,7 +6771,7 @@
       <c r="D107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6791,7 +6800,7 @@
       <c r="D108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="3"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6816,7 +6825,7 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="3"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6845,7 +6854,7 @@
       <c r="D110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="4">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -6880,7 +6889,7 @@
       <c r="D111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="4">
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -6913,7 +6922,7 @@
       <c r="D112" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="3"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
         <v>30</v>
@@ -6946,7 +6955,7 @@
       <c r="D113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="3"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6971,7 +6980,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="3"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -7000,7 +7009,7 @@
       <c r="D115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -7035,7 +7044,7 @@
       <c r="D116" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -7068,7 +7077,7 @@
       <c r="D117" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="3"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
         <v>30</v>
@@ -7101,7 +7110,7 @@
       <c r="D118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="3"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -7126,7 +7135,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="3"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -7155,7 +7164,7 @@
       <c r="D120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -7190,7 +7199,7 @@
       <c r="D121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="4">
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -7225,7 +7234,7 @@
       <c r="D122" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="3"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1" t="s">
         <v>30</v>
@@ -7258,7 +7267,7 @@
       <c r="D123" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="3"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -7287,7 +7296,7 @@
       <c r="D124" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E124" s="2"/>
+      <c r="E124" s="3"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -7316,7 +7325,7 @@
       <c r="D125" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E125" s="2"/>
+      <c r="E125" s="3"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7345,7 +7354,7 @@
       <c r="D126" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="3"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -7372,7 +7381,7 @@
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7403,7 +7412,7 @@
       <c r="D128" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="3"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7430,7 +7439,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7457,7 +7466,7 @@
         <v>127</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="3"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -7482,7 +7491,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -7511,7 +7520,7 @@
       <c r="D132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="4">
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -7548,7 +7557,7 @@
       <c r="D133" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="4">
         <v>1</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -7579,7 +7588,7 @@
         <v>179</v>
       </c>
       <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="3"/>
       <c r="F134" s="1" t="s">
         <v>23</v>
       </c>
@@ -7610,7 +7619,7 @@
       <c r="D135" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="3"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -7639,7 +7648,7 @@
       <c r="D136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="3"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -7664,7 +7673,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="3"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -7693,7 +7702,7 @@
       <c r="D138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="4">
         <v>1</v>
       </c>
       <c r="F138" s="1"/>
@@ -7726,7 +7735,7 @@
       <c r="D139" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="4">
         <v>1</v>
       </c>
       <c r="F139" s="1"/>
@@ -7761,7 +7770,7 @@
       <c r="D140" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="3"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -7790,7 +7799,7 @@
       <c r="D141" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="3"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -7819,7 +7828,7 @@
       <c r="D142" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="3"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -7848,7 +7857,7 @@
       <c r="D143" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="3"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -7877,7 +7886,7 @@
       <c r="D144" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="3"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -7906,7 +7915,7 @@
       <c r="D145" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E145" s="2"/>
+      <c r="E145" s="3"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -7935,7 +7944,7 @@
       <c r="D146" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="3"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -7960,7 +7969,7 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="3"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -7989,7 +7998,7 @@
       <c r="D148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="4">
         <v>1</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -8024,7 +8033,7 @@
       <c r="D149" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E149" s="2"/>
+      <c r="E149" s="3"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -8053,7 +8062,7 @@
       <c r="D150" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="4">
         <v>1</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -8088,7 +8097,7 @@
       <c r="D151" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E151" s="2"/>
+      <c r="E151" s="3"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -8115,7 +8124,7 @@
         <v>392</v>
       </c>
       <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="3"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -8144,7 +8153,7 @@
       <c r="D153" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E153" s="2"/>
+      <c r="E153" s="3"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1" t="s">
         <v>30</v>
@@ -8177,7 +8186,7 @@
       <c r="D154" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="3"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -8206,7 +8215,7 @@
       <c r="D155" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E155" s="2"/>
+      <c r="E155" s="3"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -8235,7 +8244,7 @@
       <c r="D156" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E156" s="2"/>
+      <c r="E156" s="3"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -8260,7 +8269,7 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="3"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -8291,7 +8300,7 @@
       <c r="D158" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="E158" s="3"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -8324,7 +8333,7 @@
       <c r="D159" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="E159" s="3"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
@@ -8334,7 +8343,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="M159" s="4">
+      <c r="M159" s="5">
         <f> {id: 'main_fdp'}</f>
       </c>
       <c r="N159" s="1" t="s">
@@ -8359,7 +8368,7 @@
       <c r="D160" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="E160" s="3"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -8392,7 +8401,7 @@
       <c r="D161" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="E161" s="3"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -8421,7 +8430,7 @@
       <c r="D162" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="3"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -8448,7 +8457,7 @@
         <v>26</v>
       </c>
       <c r="D163" s="1"/>
-      <c r="E163" s="3">
+      <c r="E163" s="4">
         <v>1</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -8479,7 +8488,7 @@
         <v>81</v>
       </c>
       <c r="D164" s="1"/>
-      <c r="E164" s="3">
+      <c r="E164" s="4">
         <v>2</v>
       </c>
       <c r="F164" s="1"/>
@@ -8512,7 +8521,7 @@
       <c r="D165" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="4">
         <v>3</v>
       </c>
       <c r="F165" s="1" t="s">
@@ -8545,7 +8554,7 @@
         <v>421</v>
       </c>
       <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="3"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -8574,7 +8583,7 @@
         <v>425</v>
       </c>
       <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="3"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -8605,7 +8614,7 @@
       <c r="D168" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="E168" s="3"/>
       <c r="F168" s="1" t="s">
         <v>23</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>430</v>
       </c>
       <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="3"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -8669,7 +8678,7 @@
       <c r="D170" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E170" s="2"/>
+      <c r="E170" s="3"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
         <v>30</v>
@@ -8694,36 +8703,36 @@
       <c r="Q170" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B171" s="1"/>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E171" s="2"/>
+      <c r="E171" s="3"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H171" s="6" t="s">
         <v>440</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
-      <c r="L171" s="5" t="s">
+      <c r="L171" s="6" t="s">
         <v>441</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="5" t="s">
+      <c r="O171" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="P171" s="5" t="s">
+      <c r="P171" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q171" s="1"/>
@@ -8739,7 +8748,7 @@
       <c r="D172" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E172" s="2"/>
+      <c r="E172" s="3"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1" t="s">
         <v>30</v>
@@ -8774,7 +8783,7 @@
       <c r="D173" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E173" s="2"/>
+      <c r="E173" s="3"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1" t="s">
         <v>30</v>
@@ -8809,7 +8818,7 @@
       <c r="D174" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E174" s="2"/>
+      <c r="E174" s="3"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
         <v>30</v>
@@ -8844,7 +8853,7 @@
       <c r="D175" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E175" s="2"/>
+      <c r="E175" s="3"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -8865,18 +8874,18 @@
       <c r="Q175" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B176" s="1"/>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E176" s="2"/>
-      <c r="F176" s="5" t="s">
+      <c r="E176" s="3"/>
+      <c r="F176" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G176" s="1"/>
@@ -8886,30 +8895,30 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O176" s="5" t="s">
+      <c r="O176" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="P176" s="5" t="s">
+      <c r="P176" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B177" s="1"/>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E177" s="2"/>
-      <c r="F177" s="5" t="s">
+      <c r="E177" s="3"/>
+      <c r="F177" s="6" t="s">
         <v>458</v>
       </c>
       <c r="G177" s="1"/>
@@ -8919,13 +8928,13 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O177" s="5" t="s">
+      <c r="O177" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="P177" s="5" t="s">
+      <c r="P177" s="6" t="s">
         <v>460</v>
       </c>
       <c r="Q177" s="1"/>
@@ -8941,7 +8950,7 @@
       <c r="D178" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E178" s="2"/>
+      <c r="E178" s="3"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
@@ -8974,7 +8983,7 @@
       <c r="D179" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E179" s="2"/>
+      <c r="E179" s="3"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
@@ -8997,17 +9006,17 @@
       <c r="Q179" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B180" s="1"/>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E180" s="2"/>
+      <c r="E180" s="3"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -9016,29 +9025,29 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
-      <c r="N180" s="5" t="s">
+      <c r="N180" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O180" s="5" t="s">
+      <c r="O180" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="P180" s="5" t="s">
+      <c r="P180" s="6" t="s">
         <v>469</v>
       </c>
       <c r="Q180" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B181" s="1"/>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E181" s="2"/>
+      <c r="E181" s="3"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -9047,13 +9056,13 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="P181" s="5" t="s">
+      <c r="P181" s="6" t="s">
         <v>469</v>
       </c>
       <c r="Q181" s="1"/>
@@ -9069,7 +9078,7 @@
       <c r="D182" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E182" s="2"/>
+      <c r="E182" s="3"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -9098,7 +9107,7 @@
       <c r="D183" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E183" s="2"/>
+      <c r="E183" s="3"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -9127,7 +9136,7 @@
       <c r="D184" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E184" s="2"/>
+      <c r="E184" s="3"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -9156,7 +9165,7 @@
       <c r="D185" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E185" s="2"/>
+      <c r="E185" s="3"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1" t="s">
         <v>30</v>
@@ -9189,7 +9198,7 @@
       <c r="D186" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E186" s="2"/>
+      <c r="E186" s="3"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -9220,7 +9229,7 @@
       <c r="D187" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E187" s="2"/>
+      <c r="E187" s="3"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -9251,7 +9260,7 @@
       <c r="D188" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E188" s="2"/>
+      <c r="E188" s="3"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -9282,7 +9291,7 @@
       <c r="D189" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E189" s="2"/>
+      <c r="E189" s="3"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -9313,7 +9322,7 @@
       <c r="D190" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E190" s="2"/>
+      <c r="E190" s="3"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -9332,22 +9341,22 @@
       <c r="Q190" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B191" s="1"/>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E191" s="2"/>
+      <c r="E191" s="3"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H191" s="6" t="s">
         <v>493</v>
       </c>
       <c r="I191" s="1"/>
@@ -9356,26 +9365,26 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="5" t="s">
+      <c r="O191" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="P191" s="5" t="s">
+      <c r="P191" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q191" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B192" s="1"/>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E192" s="2"/>
+      <c r="E192" s="3"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -9384,13 +9393,13 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="O192" s="5" t="s">
+      <c r="O192" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="P192" s="5" t="s">
+      <c r="P192" s="6" t="s">
         <v>498</v>
       </c>
       <c r="Q192" s="1"/>
@@ -9406,7 +9415,7 @@
       <c r="D193" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E193" s="2"/>
+      <c r="E193" s="3"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -9425,22 +9434,22 @@
       <c r="Q193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B194" s="1"/>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E194" s="2"/>
+      <c r="E194" s="3"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="6" t="s">
         <v>503</v>
       </c>
       <c r="I194" s="1"/>
@@ -9449,26 +9458,26 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="5" t="s">
+      <c r="O194" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="P194" s="5" t="s">
+      <c r="P194" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q194" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E195" s="2"/>
+      <c r="E195" s="3"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -9477,13 +9486,13 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="O195" s="5" t="s">
+      <c r="O195" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="P195" s="5" t="s">
+      <c r="P195" s="6" t="s">
         <v>329</v>
       </c>
       <c r="Q195" s="1"/>
@@ -9499,7 +9508,7 @@
       <c r="D196" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E196" s="2"/>
+      <c r="E196" s="3"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -9530,7 +9539,7 @@
       <c r="D197" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="2"/>
+      <c r="E197" s="3"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -9559,7 +9568,7 @@
       <c r="D198" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E198" s="2"/>
+      <c r="E198" s="3"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -9588,7 +9597,7 @@
       <c r="D199" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E199" s="2"/>
+      <c r="E199" s="3"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
@@ -9621,7 +9630,7 @@
       <c r="D200" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E200" s="2"/>
+      <c r="E200" s="3"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
@@ -9654,7 +9663,7 @@
       <c r="D201" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E201" s="2"/>
+      <c r="E201" s="3"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
@@ -9687,7 +9696,7 @@
       <c r="D202" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E202" s="2"/>
+      <c r="E202" s="3"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
@@ -9720,7 +9729,7 @@
       <c r="D203" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E203" s="2"/>
+      <c r="E203" s="3"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -9739,17 +9748,17 @@
       <c r="Q203" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B204" s="1"/>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E204" s="2"/>
+      <c r="E204" s="3"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -9758,29 +9767,29 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-      <c r="N204" s="5" t="s">
+      <c r="N204" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="O204" s="5" t="s">
+      <c r="O204" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="P204" s="5" t="s">
+      <c r="P204" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Q204" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B205" s="1"/>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E205" s="2"/>
+      <c r="E205" s="3"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -9790,10 +9799,10 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
-      <c r="O205" s="5" t="s">
+      <c r="O205" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="P205" s="5" t="s">
+      <c r="P205" s="6" t="s">
         <v>528</v>
       </c>
       <c r="Q205" s="1"/>
@@ -9809,7 +9818,7 @@
       <c r="D206" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="2"/>
+      <c r="E206" s="3"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -9840,7 +9849,7 @@
       <c r="D207" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E207" s="2"/>
+      <c r="E207" s="3"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1" t="s">
         <v>30</v>
@@ -9873,7 +9882,7 @@
       <c r="D208" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E208" s="2"/>
+      <c r="E208" s="3"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -9892,22 +9901,22 @@
       <c r="Q208" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E209" s="2"/>
+      <c r="E209" s="3"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="5" t="s">
+      <c r="G209" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="H209" s="6" t="s">
         <v>538</v>
       </c>
       <c r="I209" s="1"/>
@@ -9915,13 +9924,13 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="5" t="s">
+      <c r="N209" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="O209" s="5" t="s">
+      <c r="O209" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="P209" s="5" t="s">
+      <c r="P209" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q209" s="1"/>
@@ -9937,7 +9946,7 @@
       <c r="D210" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E210" s="2"/>
+      <c r="E210" s="3"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1" t="s">
         <v>30</v>
@@ -9962,22 +9971,22 @@
       <c r="Q210" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E211" s="2"/>
+      <c r="E211" s="3"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="5" t="s">
+      <c r="G211" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H211" s="5" t="s">
+      <c r="H211" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I211" s="1"/>
@@ -9986,26 +9995,26 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
-      <c r="O211" s="5" t="s">
+      <c r="O211" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="P211" s="5" t="s">
+      <c r="P211" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Q211" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E212" s="2"/>
+      <c r="E212" s="3"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -10014,29 +10023,29 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="O212" s="5" t="s">
+      <c r="O212" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="P212" s="5" t="s">
+      <c r="P212" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Q212" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E213" s="2"/>
+      <c r="E213" s="3"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -10045,34 +10054,34 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
-      <c r="N213" s="5" t="s">
+      <c r="N213" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="O213" s="5" t="s">
+      <c r="O213" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="P213" s="5" t="s">
+      <c r="P213" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Q213" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E214" s="3"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="5" t="s">
+      <c r="G214" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H214" s="5" t="s">
+      <c r="H214" s="6" t="s">
         <v>553</v>
       </c>
       <c r="I214" s="1"/>
@@ -10081,26 +10090,26 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
-      <c r="O214" s="5" t="s">
+      <c r="O214" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="P214" s="5" t="s">
+      <c r="P214" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q214" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E215" s="2"/>
+      <c r="E215" s="3"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -10110,31 +10119,31 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="O215" s="5" t="s">
+      <c r="O215" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P215" s="5" t="s">
+      <c r="P215" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q215" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E216" s="2"/>
+      <c r="E216" s="3"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="5" t="s">
+      <c r="G216" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H216" s="5" t="s">
+      <c r="H216" s="6" t="s">
         <v>553</v>
       </c>
       <c r="I216" s="1"/>
@@ -10143,26 +10152,26 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
-      <c r="O216" s="5" t="s">
+      <c r="O216" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="P216" s="5" t="s">
+      <c r="P216" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q216" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E217" s="2"/>
+      <c r="E217" s="3"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -10172,10 +10181,10 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
-      <c r="O217" s="5" t="s">
+      <c r="O217" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="P217" s="5" t="s">
+      <c r="P217" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q217" s="1"/>
@@ -10191,7 +10200,7 @@
       <c r="D218" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E218" s="2"/>
+      <c r="E218" s="3"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1" t="s">
         <v>30</v>
@@ -10224,7 +10233,7 @@
       <c r="D219" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E219" s="2"/>
+      <c r="E219" s="3"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -10253,7 +10262,7 @@
       <c r="D220" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E220" s="2"/>
+      <c r="E220" s="3"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1" t="s">
         <v>30</v>
@@ -10286,7 +10295,7 @@
       <c r="D221" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E221" s="2"/>
+      <c r="E221" s="3"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -10315,7 +10324,7 @@
       <c r="D222" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E222" s="2"/>
+      <c r="E222" s="3"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
         <v>30</v>
@@ -10348,7 +10357,7 @@
       <c r="D223" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E223" s="2"/>
+      <c r="E223" s="3"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
         <v>30</v>
@@ -10381,7 +10390,7 @@
       <c r="D224" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="3"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1" t="s">
         <v>30</v>
@@ -10414,7 +10423,7 @@
       <c r="D225" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E225" s="2"/>
+      <c r="E225" s="3"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -10443,7 +10452,7 @@
       <c r="D226" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E226" s="2"/>
+      <c r="E226" s="3"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -10472,7 +10481,7 @@
       <c r="D227" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E227" s="2"/>
+      <c r="E227" s="3"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
@@ -10505,7 +10514,7 @@
       <c r="D228" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E228" s="2"/>
+      <c r="E228" s="3"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -10534,7 +10543,7 @@
       <c r="D229" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E229" s="2"/>
+      <c r="E229" s="3"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
@@ -10557,22 +10566,22 @@
       <c r="Q229" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B230" s="1"/>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E230" s="2"/>
-      <c r="F230" s="5" t="s">
+      <c r="E230" s="3"/>
+      <c r="F230" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G230" s="1"/>
-      <c r="H230" s="5" t="s">
+      <c r="H230" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I230" s="1"/>
@@ -10580,34 +10589,34 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-      <c r="N230" s="5" t="s">
+      <c r="N230" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O230" s="5" t="s">
+      <c r="O230" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="P230" s="5" t="s">
+      <c r="P230" s="6" t="s">
         <v>591</v>
       </c>
       <c r="Q230" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B231" s="1"/>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="D231" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="5" t="s">
+      <c r="E231" s="3"/>
+      <c r="F231" s="6" t="s">
         <v>458</v>
       </c>
       <c r="G231" s="1"/>
-      <c r="H231" s="5" t="s">
+      <c r="H231" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I231" s="1"/>
@@ -10615,13 +10624,13 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="5" t="s">
+      <c r="N231" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O231" s="5" t="s">
+      <c r="O231" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="P231" s="5" t="s">
+      <c r="P231" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Q231" s="1"/>
@@ -10637,7 +10646,7 @@
       <c r="D232" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E232" s="2"/>
+      <c r="E232" s="3"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
@@ -10660,22 +10669,22 @@
       <c r="Q232" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B233" s="1"/>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D233" s="5" t="s">
+      <c r="D233" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E233" s="2"/>
-      <c r="F233" s="5" t="s">
+      <c r="E233" s="3"/>
+      <c r="F233" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G233" s="1"/>
-      <c r="H233" s="5" t="s">
+      <c r="H233" s="6" t="s">
         <v>124</v>
       </c>
       <c r="I233" s="1"/>
@@ -10683,13 +10692,13 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-      <c r="N233" s="5" t="s">
+      <c r="N233" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="O233" s="5" t="s">
+      <c r="O233" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="P233" s="5" t="s">
+      <c r="P233" s="6" t="s">
         <v>591</v>
       </c>
       <c r="Q233" s="1"/>
@@ -10705,7 +10714,7 @@
       <c r="D234" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E234" s="2"/>
+      <c r="E234" s="3"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
@@ -10738,7 +10747,7 @@
       <c r="D235" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E235" s="2"/>
+      <c r="E235" s="3"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
@@ -10771,7 +10780,7 @@
       <c r="D236" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E236" s="2"/>
+      <c r="E236" s="3"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -10800,7 +10809,7 @@
       <c r="D237" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E237" s="2"/>
+      <c r="E237" s="3"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1" t="s">
@@ -10833,7 +10842,7 @@
       <c r="D238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E238" s="2"/>
+      <c r="E238" s="3"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1" t="s">
@@ -10866,7 +10875,7 @@
       <c r="D239" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E239" s="2"/>
+      <c r="E239" s="3"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1" t="s">
         <v>30</v>
@@ -10899,7 +10908,7 @@
       <c r="D240" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E240" s="2"/>
+      <c r="E240" s="3"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1" t="s">
         <v>30</v>
@@ -10932,7 +10941,7 @@
       <c r="D241" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="2"/>
+      <c r="E241" s="3"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -10961,7 +10970,7 @@
       <c r="D242" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="2"/>
+      <c r="E242" s="3"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -10990,7 +10999,7 @@
       <c r="D243" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E243" s="2"/>
+      <c r="E243" s="3"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -11019,7 +11028,7 @@
       <c r="D244" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E244" s="2"/>
+      <c r="E244" s="3"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -11048,7 +11057,7 @@
       <c r="D245" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E245" s="2"/>
+      <c r="E245" s="3"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -11077,7 +11086,7 @@
       <c r="D246" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E246" s="2"/>
+      <c r="E246" s="3"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -11106,7 +11115,7 @@
       <c r="D247" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E247" s="2"/>
+      <c r="E247" s="3"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -11135,7 +11144,7 @@
       <c r="D248" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E248" s="2"/>
+      <c r="E248" s="3"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -11164,7 +11173,7 @@
       <c r="D249" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E249" s="2"/>
+      <c r="E249" s="3"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -11193,7 +11202,7 @@
       <c r="D250" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E250" s="2"/>
+      <c r="E250" s="3"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -11222,7 +11231,7 @@
       <c r="D251" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E251" s="2"/>
+      <c r="E251" s="3"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -11251,7 +11260,7 @@
       <c r="D252" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E252" s="2"/>
+      <c r="E252" s="3"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -11280,7 +11289,7 @@
       <c r="D253" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E253" s="2"/>
+      <c r="E253" s="3"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1" t="s">
         <v>30</v>
@@ -11313,7 +11322,7 @@
       <c r="D254" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E254" s="2"/>
+      <c r="E254" s="3"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1" t="s">
         <v>30</v>
@@ -11346,7 +11355,7 @@
       <c r="D255" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E255" s="2"/>
+      <c r="E255" s="3"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1" t="s">
         <v>30</v>
@@ -11379,7 +11388,7 @@
       <c r="D256" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E256" s="2"/>
+      <c r="E256" s="3"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -11408,7 +11417,7 @@
       <c r="D257" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E257" s="2"/>
+      <c r="E257" s="3"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -11437,7 +11446,7 @@
       <c r="D258" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E258" s="2"/>
+      <c r="E258" s="3"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -11466,7 +11475,7 @@
       <c r="D259" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E259" s="2"/>
+      <c r="E259" s="3"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -11495,7 +11504,7 @@
       <c r="D260" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E260" s="2"/>
+      <c r="E260" s="3"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -11524,7 +11533,7 @@
       <c r="D261" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E261" s="2"/>
+      <c r="E261" s="3"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -11553,7 +11562,7 @@
       <c r="D262" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E262" s="2"/>
+      <c r="E262" s="3"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -11582,7 +11591,7 @@
       <c r="D263" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E263" s="2"/>
+      <c r="E263" s="3"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1" t="s">
@@ -11615,7 +11624,7 @@
       <c r="D264" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E264" s="2"/>
+      <c r="E264" s="3"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
@@ -11644,7 +11653,7 @@
       <c r="D265" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E265" s="2"/>
+      <c r="E265" s="3"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1" t="s">
         <v>30</v>
@@ -11677,7 +11686,7 @@
       <c r="D266" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E266" s="2"/>
+      <c r="E266" s="3"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1" t="s">
         <v>30</v>
@@ -11710,7 +11719,7 @@
       <c r="D267" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E267" s="2"/>
+      <c r="E267" s="3"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -11739,7 +11748,7 @@
       <c r="D268" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E268" s="2"/>
+      <c r="E268" s="3"/>
       <c r="F268" s="1" t="s">
         <v>458</v>
       </c>
@@ -11753,7 +11762,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
-      <c r="M268" s="4">
+      <c r="M268" s="5">
         <f> {name: 'Non public'}</f>
       </c>
       <c r="N268" s="1" t="s">
@@ -11768,22 +11777,22 @@
       <c r="Q268" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B269" s="1"/>
-      <c r="C269" s="5" t="s">
+      <c r="C269" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D269" s="5" t="s">
+      <c r="D269" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E269" s="2"/>
+      <c r="E269" s="3"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="5" t="s">
+      <c r="G269" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H269" s="5" t="s">
+      <c r="H269" s="6" t="s">
         <v>678</v>
       </c>
       <c r="I269" s="1"/>
@@ -11792,31 +11801,31 @@
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
-      <c r="O269" s="5" t="s">
+      <c r="O269" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="P269" s="5" t="s">
+      <c r="P269" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q269" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B270" s="1"/>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E270" s="2"/>
+      <c r="E270" s="3"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="5" t="s">
+      <c r="G270" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H270" s="5" t="s">
+      <c r="H270" s="6" t="s">
         <v>681</v>
       </c>
       <c r="I270" s="1"/>
@@ -11825,26 +11834,26 @@
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
-      <c r="O270" s="5" t="s">
+      <c r="O270" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="P270" s="5" t="s">
+      <c r="P270" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q270" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B271" s="1"/>
-      <c r="C271" s="5" t="s">
+      <c r="C271" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="D271" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="2"/>
+      <c r="E271" s="3"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
@@ -11854,26 +11863,26 @@
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
-      <c r="O271" s="5" t="s">
+      <c r="O271" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="P271" s="5" t="s">
+      <c r="P271" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q271" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B272" s="1"/>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D272" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E272" s="2"/>
+      <c r="E272" s="3"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -11883,10 +11892,10 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
-      <c r="O272" s="5" t="s">
+      <c r="O272" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="P272" s="5" t="s">
+      <c r="P272" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q272" s="1"/>
@@ -11902,7 +11911,7 @@
       <c r="D273" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E273" s="2"/>
+      <c r="E273" s="3"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -11931,7 +11940,7 @@
       <c r="D274" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="2"/>
+      <c r="E274" s="3"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -11960,7 +11969,7 @@
       <c r="D275" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" s="3"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -11989,7 +11998,7 @@
       <c r="D276" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E276" s="2"/>
+      <c r="E276" s="3"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -12018,7 +12027,7 @@
       <c r="D277" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E277" s="2"/>
+      <c r="E277" s="3"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -12047,7 +12056,7 @@
       <c r="D278" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E278" s="2"/>
+      <c r="E278" s="3"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -12076,7 +12085,7 @@
       <c r="D279" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E279" s="2"/>
+      <c r="E279" s="3"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -12105,7 +12114,7 @@
       <c r="D280" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E280" s="2"/>
+      <c r="E280" s="3"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -12134,7 +12143,7 @@
       <c r="D281" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E281" s="2"/>
+      <c r="E281" s="3"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -12163,7 +12172,7 @@
       <c r="D282" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E282" s="2"/>
+      <c r="E282" s="3"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -12192,7 +12201,7 @@
       <c r="D283" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E283" s="2"/>
+      <c r="E283" s="3"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -12221,7 +12230,7 @@
       <c r="D284" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E284" s="2"/>
+      <c r="E284" s="3"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -12250,7 +12259,7 @@
       <c r="D285" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E285" s="2"/>
+      <c r="E285" s="3"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -12279,7 +12288,7 @@
       <c r="D286" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E286" s="2"/>
+      <c r="E286" s="3"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1" t="s">
         <v>30</v>
@@ -12314,7 +12323,7 @@
       <c r="D287" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E287" s="2"/>
+      <c r="E287" s="3"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -12343,7 +12352,7 @@
       <c r="D288" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E288" s="2"/>
+      <c r="E288" s="3"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -12372,7 +12381,7 @@
       <c r="D289" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E289" s="2"/>
+      <c r="E289" s="3"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -12401,7 +12410,7 @@
       <c r="D290" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="3"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -12430,7 +12439,7 @@
       <c r="D291" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E291" s="2"/>
+      <c r="E291" s="3"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -12459,7 +12468,7 @@
       <c r="D292" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E292" s="2"/>
+      <c r="E292" s="3"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1" t="s">
         <v>30</v>
@@ -12492,7 +12501,7 @@
       <c r="D293" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E293" s="2"/>
+      <c r="E293" s="3"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -12521,7 +12530,7 @@
       <c r="D294" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E294" s="2"/>
+      <c r="E294" s="3"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -12550,7 +12559,7 @@
       <c r="D295" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E295" s="2"/>
+      <c r="E295" s="3"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -12579,7 +12588,7 @@
       <c r="D296" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E296" s="2"/>
+      <c r="E296" s="3"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -12608,7 +12617,7 @@
       <c r="D297" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E297" s="2"/>
+      <c r="E297" s="3"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -12637,7 +12646,7 @@
       <c r="D298" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E298" s="2"/>
+      <c r="E298" s="3"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -12666,7 +12675,7 @@
       <c r="D299" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E299" s="2"/>
+      <c r="E299" s="3"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -12695,7 +12704,7 @@
       <c r="D300" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E300" s="2"/>
+      <c r="E300" s="3"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -12724,7 +12733,7 @@
       <c r="D301" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E301" s="2"/>
+      <c r="E301" s="3"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -12753,7 +12762,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="2"/>
+      <c r="E302" s="3"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -12782,7 +12791,7 @@
       <c r="D303" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="2"/>
+      <c r="E303" s="3"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -12811,7 +12820,7 @@
       <c r="D304" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="2"/>
+      <c r="E304" s="3"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -12840,7 +12849,7 @@
       <c r="D305" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="2"/>
+      <c r="E305" s="3"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
@@ -12869,7 +12878,7 @@
       <c r="D306" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E306" s="2"/>
+      <c r="E306" s="3"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -12898,7 +12907,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="2"/>
+      <c r="E307" s="3"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
@@ -12927,7 +12936,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="2"/>
+      <c r="E308" s="3"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
@@ -12956,7 +12965,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="2"/>
+      <c r="E309" s="3"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -12983,7 +12992,7 @@
         <v>764</v>
       </c>
       <c r="D310" s="1"/>
-      <c r="E310" s="2"/>
+      <c r="E310" s="3"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
@@ -13012,7 +13021,7 @@
       <c r="D311" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E311" s="2"/>
+      <c r="E311" s="3"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -13041,7 +13050,7 @@
       <c r="D312" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E312" s="2"/>
+      <c r="E312" s="3"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
@@ -13074,7 +13083,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="2"/>
+      <c r="E313" s="3"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -13103,7 +13112,7 @@
       <c r="D314" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E314" s="2"/>
+      <c r="E314" s="3"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
         <v>30</v>
@@ -13136,7 +13145,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="2"/>
+      <c r="E315" s="3"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -13165,7 +13174,7 @@
       <c r="D316" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E316" s="2"/>
+      <c r="E316" s="3"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -13194,7 +13203,7 @@
       <c r="D317" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E317" s="2"/>
+      <c r="E317" s="3"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
@@ -13227,7 +13236,7 @@
       <c r="D318" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E318" s="2"/>
+      <c r="E318" s="3"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1" t="s">
         <v>30</v>
@@ -13260,7 +13269,7 @@
       <c r="D319" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E319" s="2"/>
+      <c r="E319" s="3"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
         <v>30</v>
@@ -13293,7 +13302,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="2"/>
+      <c r="E320" s="3"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
@@ -13322,7 +13331,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="2"/>
+      <c r="E321" s="3"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -13351,7 +13360,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="2"/>
+      <c r="E322" s="3"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
@@ -13370,17 +13379,17 @@
       <c r="Q322" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B323" s="1"/>
-      <c r="C323" s="5" t="s">
+      <c r="C323" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D323" s="5" t="s">
+      <c r="D323" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="2"/>
+      <c r="E323" s="3"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -13389,13 +13398,13 @@
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
-      <c r="N323" s="5" t="s">
+      <c r="N323" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="O323" s="5" t="s">
+      <c r="O323" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P323" s="5" t="s">
+      <c r="P323" s="6" t="s">
         <v>796</v>
       </c>
       <c r="Q323" s="1"/>
@@ -13411,7 +13420,7 @@
       <c r="D324" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E324" s="2"/>
+      <c r="E324" s="3"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
@@ -13444,7 +13453,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="2"/>
+      <c r="E325" s="3"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
@@ -13473,7 +13482,7 @@
       <c r="D326" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E326" s="2"/>
+      <c r="E326" s="3"/>
       <c r="F326" s="1" t="s">
         <v>458</v>
       </c>
@@ -13487,7 +13496,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
-      <c r="M326" s="4">
+      <c r="M326" s="5">
         <f> [{name: 'Health'}]</f>
       </c>
       <c r="N326" s="1" t="s">
@@ -13512,7 +13521,7 @@
       <c r="D327" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E327" s="2"/>
+      <c r="E327" s="3"/>
       <c r="F327" s="1" t="s">
         <v>185</v>
       </c>
@@ -13526,7 +13535,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
-      <c r="M327" s="4">
+      <c r="M327" s="5">
         <f> [{name: 'Data Governance Act'}]</f>
       </c>
       <c r="N327" s="1" t="s">
@@ -13551,7 +13560,7 @@
       <c r="D328" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E328" s="2"/>
+      <c r="E328" s="3"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
@@ -13580,7 +13589,7 @@
       <c r="D329" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E329" s="2"/>
+      <c r="E329" s="3"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
@@ -13609,7 +13618,7 @@
       <c r="D330" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E330" s="2"/>
+      <c r="E330" s="3"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
@@ -13638,7 +13647,7 @@
       <c r="D331" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E331" s="2"/>
+      <c r="E331" s="3"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
@@ -13667,7 +13676,7 @@
       <c r="D332" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E332" s="2"/>
+      <c r="E332" s="3"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
@@ -13696,7 +13705,7 @@
       <c r="D333" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E333" s="2"/>
+      <c r="E333" s="3"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1" t="s">
@@ -13727,7 +13736,7 @@
       <c r="D334" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E334" s="2"/>
+      <c r="E334" s="3"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1" t="s">
         <v>30</v>
@@ -13760,7 +13769,7 @@
       <c r="D335" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E335" s="2"/>
+      <c r="E335" s="3"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -13789,7 +13798,7 @@
       <c r="D336" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E336" s="2"/>
+      <c r="E336" s="3"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -13818,7 +13827,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="2"/>
+      <c r="E337" s="3"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
@@ -13847,7 +13856,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="2"/>
+      <c r="E338" s="3"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
@@ -13876,7 +13885,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="2"/>
+      <c r="E339" s="3"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -13901,7 +13910,7 @@
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="2"/>
+      <c r="E340" s="3"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -13930,7 +13939,7 @@
       <c r="D341" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341" s="4">
         <v>1</v>
       </c>
       <c r="F341" s="1" t="s">
@@ -13965,7 +13974,7 @@
       <c r="D342" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="4">
         <v>1</v>
       </c>
       <c r="F342" s="1" t="s">
@@ -13996,7 +14005,7 @@
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="2"/>
+      <c r="E343" s="3"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
@@ -14025,7 +14034,7 @@
       <c r="D344" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="4">
         <v>1</v>
       </c>
       <c r="F344" s="1" t="s">
@@ -14058,7 +14067,7 @@
         <v>33</v>
       </c>
       <c r="D345" s="1"/>
-      <c r="E345" s="3">
+      <c r="E345" s="4">
         <v>1</v>
       </c>
       <c r="F345" s="1" t="s">
@@ -14091,7 +14100,7 @@
       <c r="D346" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E346" s="2"/>
+      <c r="E346" s="3"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1" t="s">
         <v>30</v>
@@ -14120,7 +14129,7 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="2"/>
+      <c r="E347" s="3"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -14149,7 +14158,7 @@
       <c r="D348" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="4">
         <v>1</v>
       </c>
       <c r="F348" s="1" t="s">
@@ -14184,7 +14193,7 @@
       <c r="D349" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="4">
         <v>1</v>
       </c>
       <c r="F349" s="1" t="s">
@@ -14221,7 +14230,7 @@
       <c r="D350" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="4">
         <v>1</v>
       </c>
       <c r="F350" s="1" t="s">
@@ -14258,7 +14267,7 @@
       <c r="D351" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E351" s="2"/>
+      <c r="E351" s="3"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -14287,7 +14296,7 @@
       <c r="D352" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E352" s="2"/>
+      <c r="E352" s="3"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -14316,7 +14325,7 @@
       <c r="D353" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E353" s="2"/>
+      <c r="E353" s="3"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
@@ -14341,7 +14350,7 @@
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="2"/>
+      <c r="E354" s="3"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -14372,7 +14381,7 @@
       <c r="D355" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355" s="4">
         <v>1</v>
       </c>
       <c r="F355" s="1" t="s">
@@ -14399,18 +14408,18 @@
       <c r="Q355" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B356" s="1"/>
-      <c r="C356" s="5" t="s">
+      <c r="C356" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D356" s="1"/>
-      <c r="E356" s="6">
+      <c r="E356" s="7">
         <v>1</v>
       </c>
-      <c r="F356" s="7" t="s">
+      <c r="F356" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G356" s="1"/>
@@ -14420,13 +14429,13 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
-      <c r="N356" s="5" t="s">
+      <c r="N356" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O356" s="5" t="s">
+      <c r="O356" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="P356" s="5" t="s">
+      <c r="P356" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q356" s="1"/>
@@ -14440,7 +14449,7 @@
         <v>81</v>
       </c>
       <c r="D357" s="1"/>
-      <c r="E357" s="2"/>
+      <c r="E357" s="3"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -14461,18 +14470,18 @@
       <c r="Q357" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B358" s="1"/>
-      <c r="C358" s="5" t="s">
+      <c r="C358" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D358" s="5" t="s">
+      <c r="D358" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E358" s="2"/>
-      <c r="F358" s="5" t="s">
+      <c r="E358" s="3"/>
+      <c r="F358" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G358" s="1"/>
@@ -14482,30 +14491,30 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
-      <c r="N358" s="5" t="s">
+      <c r="N358" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O358" s="5" t="s">
+      <c r="O358" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="P358" s="5" t="s">
+      <c r="P358" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q358" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B359" s="1"/>
-      <c r="C359" s="5" t="s">
+      <c r="C359" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D359" s="5" t="s">
+      <c r="D359" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E359" s="2"/>
-      <c r="F359" s="5" t="s">
+      <c r="E359" s="3"/>
+      <c r="F359" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G359" s="1"/>
@@ -14515,13 +14524,13 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
-      <c r="N359" s="5" t="s">
+      <c r="N359" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O359" s="5" t="s">
+      <c r="O359" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="P359" s="5" t="s">
+      <c r="P359" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q359" s="1"/>
@@ -14537,7 +14546,7 @@
       <c r="D360" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E360" s="2"/>
+      <c r="E360" s="3"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -14568,7 +14577,7 @@
       <c r="D361" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E361" s="2"/>
+      <c r="E361" s="3"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1" t="s">
@@ -14601,7 +14610,7 @@
       <c r="D362" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E362" s="2"/>
+      <c r="E362" s="3"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -14632,7 +14641,7 @@
       <c r="D363" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E363" s="2"/>
+      <c r="E363" s="3"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -14653,22 +14662,22 @@
       <c r="Q363" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B364" s="1"/>
-      <c r="C364" s="5" t="s">
+      <c r="C364" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="D364" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E364" s="2"/>
+      <c r="E364" s="3"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="5" t="s">
+      <c r="G364" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H364" s="5" t="s">
+      <c r="H364" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I364" s="1"/>
@@ -14677,26 +14686,26 @@
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
-      <c r="O364" s="5" t="s">
+      <c r="O364" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="P364" s="5" t="s">
+      <c r="P364" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q364" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B365" s="1"/>
-      <c r="C365" s="5" t="s">
+      <c r="C365" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="D365" s="5" t="s">
+      <c r="D365" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E365" s="2"/>
+      <c r="E365" s="3"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -14705,29 +14714,29 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
-      <c r="N365" s="5" t="s">
+      <c r="N365" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="O365" s="5" t="s">
+      <c r="O365" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="P365" s="5" t="s">
+      <c r="P365" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q365" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B366" s="1"/>
-      <c r="C366" s="5" t="s">
+      <c r="C366" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D366" s="5" t="s">
+      <c r="D366" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E366" s="2"/>
+      <c r="E366" s="3"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
@@ -14736,34 +14745,34 @@
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
-      <c r="N366" s="5" t="s">
+      <c r="N366" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="O366" s="5" t="s">
+      <c r="O366" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="P366" s="5" t="s">
+      <c r="P366" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q366" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B367" s="1"/>
-      <c r="C367" s="5" t="s">
+      <c r="C367" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="D367" s="5" t="s">
+      <c r="D367" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E367" s="2"/>
+      <c r="E367" s="3"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="5" t="s">
+      <c r="G367" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H367" s="5" t="s">
+      <c r="H367" s="6" t="s">
         <v>572</v>
       </c>
       <c r="I367" s="1"/>
@@ -14772,31 +14781,31 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
-      <c r="O367" s="5" t="s">
+      <c r="O367" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="P367" s="5" t="s">
+      <c r="P367" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q367" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B368" s="1"/>
-      <c r="C368" s="5" t="s">
+      <c r="C368" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="D368" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E368" s="2"/>
+      <c r="E368" s="3"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="5" t="s">
+      <c r="G368" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H368" s="5" t="s">
+      <c r="H368" s="6" t="s">
         <v>572</v>
       </c>
       <c r="I368" s="1"/>
@@ -14805,31 +14814,31 @@
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
-      <c r="O368" s="5" t="s">
+      <c r="O368" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="P368" s="5" t="s">
+      <c r="P368" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q368" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B369" s="1"/>
-      <c r="C369" s="5" t="s">
+      <c r="C369" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D369" s="5" t="s">
+      <c r="D369" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E369" s="2"/>
+      <c r="E369" s="3"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="5" t="s">
+      <c r="G369" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H369" s="5" t="s">
+      <c r="H369" s="6" t="s">
         <v>538</v>
       </c>
       <c r="I369" s="1"/>
@@ -14837,13 +14846,13 @@
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
-      <c r="N369" s="5" t="s">
+      <c r="N369" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="O369" s="5" t="s">
+      <c r="O369" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="P369" s="5" t="s">
+      <c r="P369" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q369" s="1"/>
@@ -14859,7 +14868,7 @@
       <c r="D370" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E370" s="2"/>
+      <c r="E370" s="3"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1" t="s">
         <v>30</v>
@@ -14884,22 +14893,22 @@
       <c r="Q370" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
-      <c r="A371" s="5" t="s">
+      <c r="A371" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B371" s="1"/>
-      <c r="C371" s="5" t="s">
+      <c r="C371" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D371" s="5" t="s">
+      <c r="D371" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E371" s="2"/>
+      <c r="E371" s="3"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="5" t="s">
+      <c r="G371" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H371" s="5" t="s">
+      <c r="H371" s="6" t="s">
         <v>553</v>
       </c>
       <c r="I371" s="1"/>
@@ -14908,26 +14917,26 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
-      <c r="O371" s="5" t="s">
+      <c r="O371" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="P371" s="5" t="s">
+      <c r="P371" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q371" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B372" s="1"/>
-      <c r="C372" s="5" t="s">
+      <c r="C372" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D372" s="5" t="s">
+      <c r="D372" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E372" s="2"/>
+      <c r="E372" s="3"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
@@ -14937,31 +14946,31 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
-      <c r="O372" s="5" t="s">
+      <c r="O372" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="P372" s="5" t="s">
+      <c r="P372" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q372" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B373" s="1"/>
-      <c r="C373" s="5" t="s">
+      <c r="C373" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D373" s="5" t="s">
+      <c r="D373" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E373" s="2"/>
+      <c r="E373" s="3"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="5" t="s">
+      <c r="G373" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H373" s="5" t="s">
+      <c r="H373" s="6" t="s">
         <v>553</v>
       </c>
       <c r="I373" s="1"/>
@@ -14970,26 +14979,26 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
-      <c r="O373" s="5" t="s">
+      <c r="O373" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="P373" s="5" t="s">
+      <c r="P373" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q373" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B374" s="1"/>
-      <c r="C374" s="5" t="s">
+      <c r="C374" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D374" s="5" t="s">
+      <c r="D374" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E374" s="2"/>
+      <c r="E374" s="3"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
@@ -14999,10 +15008,10 @@
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
-      <c r="O374" s="5" t="s">
+      <c r="O374" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="P374" s="5" t="s">
+      <c r="P374" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q374" s="1"/>
@@ -15018,7 +15027,7 @@
       <c r="D375" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E375" s="2"/>
+      <c r="E375" s="3"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1" t="s">
@@ -15053,7 +15062,7 @@
       <c r="D376" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E376" s="2"/>
+      <c r="E376" s="3"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1" t="s">
@@ -15088,7 +15097,7 @@
       <c r="D377" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E377" s="2"/>
+      <c r="E377" s="3"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1" t="s">
@@ -15123,7 +15132,7 @@
       <c r="D378" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E378" s="2"/>
+      <c r="E378" s="3"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -15154,7 +15163,7 @@
       <c r="D379" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E379" s="2"/>
+      <c r="E379" s="3"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
@@ -15185,7 +15194,7 @@
       <c r="D380" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E380" s="2"/>
+      <c r="E380" s="3"/>
       <c r="F380" s="1" t="s">
         <v>52</v>
       </c>
@@ -15199,7 +15208,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
-      <c r="M380" s="4">
+      <c r="M380" s="5">
         <f> [{name: 'Health'}]</f>
       </c>
       <c r="N380" s="1" t="s">
@@ -15224,7 +15233,7 @@
       <c r="D381" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E381" s="2"/>
+      <c r="E381" s="3"/>
       <c r="F381" s="1" t="s">
         <v>52</v>
       </c>
@@ -15238,7 +15247,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
-      <c r="M381" s="4">
+      <c r="M381" s="5">
         <f> {name: 'Non public'}</f>
       </c>
       <c r="N381" s="1" t="s">
@@ -15263,7 +15272,7 @@
       <c r="D382" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E382" s="2"/>
+      <c r="E382" s="3"/>
       <c r="F382" s="1" t="s">
         <v>52</v>
       </c>
@@ -15277,7 +15286,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
-      <c r="M382" s="4">
+      <c r="M382" s="5">
         <f> [{name: 'Data Governance Act'}]</f>
       </c>
       <c r="N382" s="1" t="s">
@@ -15302,7 +15311,7 @@
       <c r="D383" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E383" s="2"/>
+      <c r="E383" s="3"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
@@ -15329,7 +15338,7 @@
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="2"/>
+      <c r="E384" s="3"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
@@ -15358,7 +15367,7 @@
       <c r="D385" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E385" s="3">
+      <c r="E385" s="4">
         <v>1</v>
       </c>
       <c r="F385" s="1" t="s">
@@ -15393,7 +15402,7 @@
       <c r="D386" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E386" s="3">
+      <c r="E386" s="4">
         <v>1</v>
       </c>
       <c r="F386" s="1" t="s">
@@ -15430,7 +15439,7 @@
       <c r="D387" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E387" s="2"/>
+      <c r="E387" s="3"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1" t="s">
@@ -15463,7 +15472,7 @@
       <c r="D388" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E388" s="2"/>
+      <c r="E388" s="3"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1" t="s">
@@ -15496,7 +15505,7 @@
       <c r="D389" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E389" s="3">
+      <c r="E389" s="4">
         <v>1</v>
       </c>
       <c r="F389" s="1" t="s">
@@ -15531,7 +15540,7 @@
       <c r="D390" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390" s="4">
         <v>1</v>
       </c>
       <c r="F390" s="1" t="s">
@@ -15568,7 +15577,7 @@
       <c r="D391" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391" s="4">
         <v>1</v>
       </c>
       <c r="F391" s="1" t="s">
@@ -15605,7 +15614,7 @@
       <c r="D392" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392" s="4">
         <v>1</v>
       </c>
       <c r="F392" s="1" t="s">
@@ -15642,7 +15651,7 @@
       <c r="D393" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E393" s="2"/>
+      <c r="E393" s="3"/>
       <c r="F393" s="1" t="s">
         <v>23</v>
       </c>
@@ -15677,7 +15686,7 @@
       <c r="D394" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="2"/>
+      <c r="E394" s="3"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
@@ -15706,7 +15715,7 @@
       <c r="D395" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="2"/>
+      <c r="E395" s="3"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
@@ -15735,7 +15744,7 @@
       <c r="D396" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="2"/>
+      <c r="E396" s="3"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
@@ -15760,7 +15769,7 @@
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="2"/>
+      <c r="E397" s="3"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
@@ -15789,7 +15798,7 @@
       <c r="D398" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398" s="4">
         <v>1</v>
       </c>
       <c r="F398" s="1" t="s">
@@ -15824,7 +15833,7 @@
       <c r="D399" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399" s="4">
         <v>1</v>
       </c>
       <c r="F399" s="1" t="s">
@@ -15861,7 +15870,7 @@
       <c r="D400" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400" s="4">
         <v>1</v>
       </c>
       <c r="F400" s="1" t="s">
@@ -15896,7 +15905,7 @@
         <v>913</v>
       </c>
       <c r="D401" s="1"/>
-      <c r="E401" s="3">
+      <c r="E401" s="4">
         <v>1</v>
       </c>
       <c r="F401" s="1" t="s">
@@ -15927,7 +15936,7 @@
         <v>222</v>
       </c>
       <c r="D402" s="1"/>
-      <c r="E402" s="2"/>
+      <c r="E402" s="3"/>
       <c r="F402" s="1" t="s">
         <v>23</v>
       </c>
@@ -15958,7 +15967,7 @@
       <c r="D403" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E403" s="2"/>
+      <c r="E403" s="3"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
@@ -15987,7 +15996,7 @@
       <c r="D404" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E404" s="2"/>
+      <c r="E404" s="3"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
@@ -16014,7 +16023,7 @@
         <v>919</v>
       </c>
       <c r="D405" s="1"/>
-      <c r="E405" s="2"/>
+      <c r="E405" s="3"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
@@ -16041,7 +16050,7 @@
         <v>240</v>
       </c>
       <c r="D406" s="1"/>
-      <c r="E406" s="2"/>
+      <c r="E406" s="3"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
@@ -16068,7 +16077,7 @@
         <v>242</v>
       </c>
       <c r="D407" s="1"/>
-      <c r="E407" s="2"/>
+      <c r="E407" s="3"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
@@ -16093,7 +16102,7 @@
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="2"/>
+      <c r="E408" s="3"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
@@ -16122,7 +16131,7 @@
       <c r="D409" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409" s="4">
         <v>1</v>
       </c>
       <c r="F409" s="1" t="s">
@@ -16157,7 +16166,7 @@
       <c r="D410" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E410" s="3">
+      <c r="E410" s="4">
         <v>1</v>
       </c>
       <c r="F410" s="1" t="s">
@@ -16192,7 +16201,7 @@
         <v>33</v>
       </c>
       <c r="D411" s="1"/>
-      <c r="E411" s="3">
+      <c r="E411" s="4">
         <v>1</v>
       </c>
       <c r="F411" s="1" t="s">
@@ -16225,7 +16234,7 @@
       <c r="D412" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E412" s="2"/>
+      <c r="E412" s="3"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1" t="s">
@@ -16254,7 +16263,7 @@
         <v>222</v>
       </c>
       <c r="D413" s="1"/>
-      <c r="E413" s="2"/>
+      <c r="E413" s="3"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
@@ -16283,7 +16292,7 @@
       <c r="D414" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="2"/>
+      <c r="E414" s="3"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
@@ -16312,7 +16321,7 @@
       <c r="D415" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E415" s="2"/>
+      <c r="E415" s="3"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1" t="s">
@@ -16345,7 +16354,7 @@
       <c r="D416" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E416" s="2"/>
+      <c r="E416" s="3"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1" t="s">
         <v>30</v>
@@ -16378,7 +16387,7 @@
       <c r="D417" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E417" s="2"/>
+      <c r="E417" s="3"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1" t="s">
         <v>30</v>
@@ -16409,7 +16418,7 @@
         <v>240</v>
       </c>
       <c r="D418" s="1"/>
-      <c r="E418" s="2"/>
+      <c r="E418" s="3"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
@@ -16436,7 +16445,7 @@
         <v>242</v>
       </c>
       <c r="D419" s="1"/>
-      <c r="E419" s="2"/>
+      <c r="E419" s="3"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
@@ -16465,7 +16474,7 @@
       <c r="D420" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E420" s="2"/>
+      <c r="E420" s="3"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1" t="s">
@@ -16498,7 +16507,7 @@
       <c r="D421" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E421" s="2"/>
+      <c r="E421" s="3"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1" t="s">
         <v>30</v>
@@ -16531,7 +16540,7 @@
       <c r="D422" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E422" s="2"/>
+      <c r="E422" s="3"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
@@ -16560,7 +16569,7 @@
       <c r="D423" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E423" s="2"/>
+      <c r="E423" s="3"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
@@ -16589,7 +16598,7 @@
       <c r="D424" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E424" s="2"/>
+      <c r="E424" s="3"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
@@ -16618,7 +16627,7 @@
       <c r="D425" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E425" s="2"/>
+      <c r="E425" s="3"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="H425" s="1" t="s">
@@ -16651,7 +16660,7 @@
       <c r="D426" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E426" s="2"/>
+      <c r="E426" s="3"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1" t="s">
         <v>30</v>
@@ -16684,7 +16693,7 @@
       <c r="D427" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E427" s="2"/>
+      <c r="E427" s="3"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1" t="s">
         <v>30</v>
@@ -16717,7 +16726,7 @@
       <c r="D428" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E428" s="2"/>
+      <c r="E428" s="3"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
@@ -16746,7 +16755,7 @@
       <c r="D429" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E429" s="2"/>
+      <c r="E429" s="3"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1" t="s">
@@ -16775,7 +16784,7 @@
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
-      <c r="E430" s="2"/>
+      <c r="E430" s="3"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
